--- a/Symphony/2021/June/Others/RBM/Dealer Q2'2021 BM Regular.xlsx
+++ b/Symphony/2021/June/Others/RBM/Dealer Q2'2021 BM Regular.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dealer_ALL\Dealer_Incentive\Disbursement File\Final Disbursement File RBM, Dealer &amp; DSR , EO &amp; SIS\Dealer &amp; DSR and EO &amp; SIS BM\Dealer &amp; DSR 2021\6. Jun'21\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\June\Others\RBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Q2''2021 Regular eligible'!$A$3:$U$30</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +370,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,32 +426,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -736,11 +769,11 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5:S30"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,100 +800,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="27" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="22" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="19" t="s">
         <v>34</v>
       </c>
@@ -906,9 +939,9 @@
       <c r="R4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -2296,69 +2329,69 @@
         <v>39844.086108717835</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="26" spans="1:21" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
         <v>22</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="33">
         <v>8094682.5231999988</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="33">
         <v>7384886.465499999</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="34">
         <v>0.91231329262566285</v>
       </c>
-      <c r="G26" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="35">
         <v>9705509.3491523806</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="35">
         <v>10662127.7557</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="34">
         <v>1.0985644722119776</v>
       </c>
-      <c r="K26" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="L26" s="5">
+      <c r="K26" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="L26" s="35">
         <v>15726232.765871428</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="35">
         <v>15899103.701900005</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="34">
         <v>1.0109925204975814</v>
       </c>
-      <c r="O26" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P26" s="5">
+      <c r="O26" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="P26" s="35">
         <v>33526424.638223808</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="35">
         <v>33946117.923100002</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="34">
         <v>1.012518283396008</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S26" s="36">
         <f t="shared" si="0"/>
         <v>84865.294807750004</v>
       </c>
-      <c r="T26" s="12">
+      <c r="T26" s="37">
         <v>28577.215529537905</v>
       </c>
-      <c r="U26" s="12">
+      <c r="U26" s="37">
         <v>56288.079278212106</v>
       </c>
     </row>
